--- a/output/fit_clients/fit_round_279.xlsx
+++ b/output/fit_clients/fit_round_279.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1982809856.206672</v>
+        <v>2065474212.526936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06916714607145109</v>
+        <v>0.09061519956759923</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03192155530548182</v>
+        <v>0.03708274832733008</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>991404921.4039458</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1935233630.033942</v>
+        <v>2032905529.120797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1249197807749999</v>
+        <v>0.1668977169485173</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03092055047685429</v>
+        <v>0.04998845034860658</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>967616845.042511</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4071165419.452294</v>
+        <v>4439165039.811559</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1268505283691377</v>
+        <v>0.1651428169547578</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03722804087196638</v>
+        <v>0.03052552540179192</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>101</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2035582728.939827</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2815487967.784122</v>
+        <v>3874551906.320817</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1009474286588039</v>
+        <v>0.08944018440550121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05106810727166677</v>
+        <v>0.04123788815120525</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>107</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1407744065.968071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2007877674.06109</v>
+        <v>2201419466.534043</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1405177406252176</v>
+        <v>0.1143511030504021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04179547140347245</v>
+        <v>0.03851527954981426</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1003938865.771059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3101481789.942328</v>
+        <v>1910389913.721021</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08812642185570407</v>
+        <v>0.0674697442467769</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04507503688806491</v>
+        <v>0.03267561126004433</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>87</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1550740850.066052</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2471875826.675756</v>
+        <v>3929781608.003986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2131244381045447</v>
+        <v>0.2117389850812565</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02516202066719377</v>
+        <v>0.02395130094022971</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>89</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1235937916.860104</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1528297240.476397</v>
+        <v>1495532888.672588</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1236029178312915</v>
+        <v>0.1709023333446209</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03591251069674326</v>
+        <v>0.02930966377569492</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>764148712.2810056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4266670750.895566</v>
+        <v>3608778262.566795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2016361916742588</v>
+        <v>0.2031743064740245</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04879967079142056</v>
+        <v>0.04174831159085523</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>118</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2133335417.979568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2962099852.255245</v>
+        <v>3842916636.504068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1678272509699714</v>
+        <v>0.1364120334628713</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03077181490659772</v>
+        <v>0.04178985768012129</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>115</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1481049866.468112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2549213037.223337</v>
+        <v>2229282804.842909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1739633649287168</v>
+        <v>0.1733118859648011</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04019628464680768</v>
+        <v>0.04521539043395874</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>96</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1274606495.32072</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4864265555.617781</v>
+        <v>3833323000.708971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0781837070284747</v>
+        <v>0.07095355700423711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02479296635613523</v>
+        <v>0.02767385047720668</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>94</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2432132788.841443</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3158661527.817672</v>
+        <v>3456927307.516561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1232865138706266</v>
+        <v>0.1565469137457523</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02937195364303713</v>
+        <v>0.02992035195424237</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1579330786.8494</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1248837713.063191</v>
+        <v>1550762739.385038</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07533324132041468</v>
+        <v>0.06803582698795388</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04097065834450307</v>
+        <v>0.03615185980151549</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>624418885.0862427</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2662428567.836754</v>
+        <v>2841793591.549214</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1078154949430069</v>
+        <v>0.08987466269198427</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05188068209342794</v>
+        <v>0.03396922193778067</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>53</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1331214300.225579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4303358153.420863</v>
+        <v>3215236722.733449</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1499788463826202</v>
+        <v>0.1104328334002291</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03754251143796072</v>
+        <v>0.03897381227449057</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>82</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2151679096.266022</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3756864325.436928</v>
+        <v>2867047148.829736</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1324181979188802</v>
+        <v>0.1601937286249767</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02540779303179198</v>
+        <v>0.02118295766516241</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>91</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1878432138.178929</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1220552978.688493</v>
+        <v>1264419257.141352</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1295719706921354</v>
+        <v>0.1321974066353498</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02546648306404021</v>
+        <v>0.01905728040410485</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>610276572.2435369</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2067343829.121996</v>
+        <v>2102752481.936305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1493099091285122</v>
+        <v>0.1377401413559205</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02584561490295706</v>
+        <v>0.02475975132742249</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1033671933.742243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2677782619.391308</v>
+        <v>1808651091.261429</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0679548374446102</v>
+        <v>0.100206802790867</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03367720343223628</v>
+        <v>0.03537631148590076</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1338891280.833966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3907384776.275335</v>
+        <v>2922545285.966447</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1179940549805532</v>
+        <v>0.1094762443194262</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05534338069639719</v>
+        <v>0.05235086264751939</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1953692395.331426</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1336057423.894062</v>
+        <v>1543565426.004289</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1331213611697546</v>
+        <v>0.1796039715057113</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04742017487219096</v>
+        <v>0.04038827138407892</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>668028725.5109332</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2661682839.016308</v>
+        <v>4145598947.216222</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1157031103200837</v>
+        <v>0.1104726152193844</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02985709933201176</v>
+        <v>0.03578610620258872</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>82</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1330841477.50309</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1456832727.426179</v>
+        <v>1356117696.647337</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1123586490780369</v>
+        <v>0.09886867837821291</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02398817281728091</v>
+        <v>0.02117287259104553</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>728416322.5835073</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1431255958.397665</v>
+        <v>1424539162.529126</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08118096955550602</v>
+        <v>0.08940671295625852</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02444837935169282</v>
+        <v>0.02698571434060556</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>715628056.83549</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4203511618.984562</v>
+        <v>3245420948.090593</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1351698374050797</v>
+        <v>0.1215846254029173</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01707613438574199</v>
+        <v>0.02551512446503836</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2101755809.510816</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3539761127.830338</v>
+        <v>2616382701.015929</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1500589974677899</v>
+        <v>0.1281922883677661</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04555635274714007</v>
+        <v>0.04115191448974274</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>91</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1769880622.015398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4726039359.366847</v>
+        <v>5913552064.814534</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1043196973705622</v>
+        <v>0.1054484527032452</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04439602985188874</v>
+        <v>0.03620448284155484</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>123</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2363019646.267107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1879587676.074784</v>
+        <v>1582742574.626436</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1167730634022381</v>
+        <v>0.09096274923979022</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03545705116502585</v>
+        <v>0.02532485939739217</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>939793861.8142539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1360323137.127658</v>
+        <v>1260277926.757546</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1083078176418853</v>
+        <v>0.08561168877102483</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04345397800006919</v>
+        <v>0.05226035653303811</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>680161482.2923617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1501448083.526653</v>
+        <v>1694804829.255956</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08678679243767853</v>
+        <v>0.09359038248216825</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03357015292562047</v>
+        <v>0.03175119213456003</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>750724110.4267142</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2672198000.717419</v>
+        <v>2363598046.878507</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1491969450178847</v>
+        <v>0.1882224515090435</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05200501956536839</v>
+        <v>0.04083618406780014</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>85</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1336099023.885979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1078615159.797913</v>
+        <v>1492573034.377262</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09256793197587662</v>
+        <v>0.117744971000009</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02215340139476086</v>
+        <v>0.0258578653856424</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>539307604.8624986</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1228855732.913967</v>
+        <v>1036615138.251054</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07234240677702052</v>
+        <v>0.09358945127886852</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03720907507730482</v>
+        <v>0.04205496726040046</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>614427834.8480322</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2253113663.120981</v>
+        <v>2456422174.298584</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1351242935962929</v>
+        <v>0.1208618413110746</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02629077652973294</v>
+        <v>0.02128589998887072</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>70</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1126556873.295494</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1956323309.287242</v>
+        <v>2296931764.231087</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0916384381867531</v>
+        <v>0.1116098561230499</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03512755912991412</v>
+        <v>0.0410154018189992</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>74</v>
-      </c>
-      <c r="J37" t="n">
-        <v>978161675.8980906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1789507902.113179</v>
+        <v>2025006743.907282</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09346149647761451</v>
+        <v>0.1215787815200956</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03351004353733336</v>
+        <v>0.02818019767337706</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>894753959.4126234</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1527117751.919656</v>
+        <v>1570378747.146025</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1868206054976163</v>
+        <v>0.1601113950405034</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0275660093936343</v>
+        <v>0.03054824538453916</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>763558942.2728854</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1806630424.325064</v>
+        <v>1807375043.252329</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1304519245032029</v>
+        <v>0.1052224374131653</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04318155433877367</v>
+        <v>0.04609975237581342</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>903315101.6077127</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1791130984.825867</v>
+        <v>2399866172.431874</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1092764452517954</v>
+        <v>0.1613872383013882</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03577732128775378</v>
+        <v>0.04143014501250666</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>895565587.086273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3811333937.263008</v>
+        <v>2845033608.135331</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08937695525697412</v>
+        <v>0.1098295718289835</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03661504656424605</v>
+        <v>0.04187148234534158</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1905666984.909857</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2156040111.54235</v>
+        <v>2339382319.364132</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1932130321751931</v>
+        <v>0.1707518259959653</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01715727716338952</v>
+        <v>0.02301131093493148</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>102</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1078020139.002815</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2202265174.81898</v>
+        <v>2094849819.460357</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07840824155703516</v>
+        <v>0.06435385644402322</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02635927862132561</v>
+        <v>0.03393316205517632</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1101132734.0933</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2159963553.284062</v>
+        <v>2217719154.859303</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1892335832155049</v>
+        <v>0.1607146724328852</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05107487109410466</v>
+        <v>0.03810351592973054</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1079981783.661743</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4569567500.446224</v>
+        <v>4864977421.319935</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1115416591157122</v>
+        <v>0.1519942526617497</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04260442622999422</v>
+        <v>0.04040667556445685</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>99</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2284783752.374385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4720697214.339573</v>
+        <v>3476385924.484336</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1381163171168272</v>
+        <v>0.1727967692544789</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05804942720940941</v>
+        <v>0.0510386506049773</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>75</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2360348647.126534</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3509446828.700772</v>
+        <v>2936043751.104136</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09281966964532593</v>
+        <v>0.09616622363833531</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03506980342720274</v>
+        <v>0.02840918514242582</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1754723477.210973</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1971679480.993809</v>
+        <v>1252795885.895564</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1928695615532328</v>
+        <v>0.1330741772146398</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03905209037594215</v>
+        <v>0.04375774594717279</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>985839699.1891098</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3381388489.805403</v>
+        <v>3017219248.012851</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1282159565055003</v>
+        <v>0.1136360690402992</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03361128095953789</v>
+        <v>0.04663658955283204</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>95</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1690694277.616863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>981145057.8677396</v>
+        <v>1214422684.600856</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1766189707715378</v>
+        <v>0.140985852300843</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04924272015633174</v>
+        <v>0.05447818851375575</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>490572615.9578207</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3623390003.476639</v>
+        <v>4044695147.804829</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1085814701907199</v>
+        <v>0.09450030928078818</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04057825447933693</v>
+        <v>0.05059913712841516</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>115</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1811695080.381842</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3316753032.682503</v>
+        <v>2681927146.52372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1827683334224565</v>
+        <v>0.1636146575242075</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02424188705987364</v>
+        <v>0.02331694457714944</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1658376526.905565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3738484363.298313</v>
+        <v>4339475812.215618</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1526917275126143</v>
+        <v>0.1063026148256008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03561294770456652</v>
+        <v>0.05160642932794366</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1869242225.195653</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3967370068.624729</v>
+        <v>3435676917.281189</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1914536526554747</v>
+        <v>0.1561534449430547</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02400784697851453</v>
+        <v>0.02688011911201763</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1983685007.779687</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1596246591.021249</v>
+        <v>1457727124.890293</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1386310516730127</v>
+        <v>0.1159794963797535</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05549912527127457</v>
+        <v>0.03919145303936085</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>798123323.5158906</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3954755580.426539</v>
+        <v>4580210088.645315</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1472794162429632</v>
+        <v>0.172369153621026</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01835677456546273</v>
+        <v>0.02521828396649177</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>89</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1977377874.78178</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1664675210.894114</v>
+        <v>1536623769.486696</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1714788715567753</v>
+        <v>0.1751129597091222</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02965451968005003</v>
+        <v>0.02422706894955822</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>832337621.5675631</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3741411581.215063</v>
+        <v>4534168174.619643</v>
       </c>
       <c r="F59" t="n">
-        <v>0.100594442643625</v>
+        <v>0.1115988014865842</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03453191115085669</v>
+        <v>0.04634663055536491</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1870705779.035292</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3483999653.737934</v>
+        <v>2950961837.591201</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1402006462415596</v>
+        <v>0.1832677008548669</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02889829147065346</v>
+        <v>0.03075743782148</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>88</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1741999947.983542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2208044849.495736</v>
+        <v>2689283907.033817</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1786816686563044</v>
+        <v>0.1181868980481408</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02478194121674402</v>
+        <v>0.02755559492085837</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>96</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1104022479.89121</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1336748744.073357</v>
+        <v>2110867085.560992</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1348559353684504</v>
+        <v>0.1838936562263226</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03300087713000151</v>
+        <v>0.04243677094631015</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>668374330.6177527</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3893214590.95409</v>
+        <v>4037859279.61761</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06728491714265061</v>
+        <v>0.08194948573940311</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04259704960983403</v>
+        <v>0.03658187233126961</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>81</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1946607362.643739</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4677618660.088001</v>
+        <v>4916424120.405291</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1842527199494911</v>
+        <v>0.1362476975768212</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03177902977509155</v>
+        <v>0.02466897109654592</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>87</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2338809413.563433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4617875559.274573</v>
+        <v>5491671376.524397</v>
       </c>
       <c r="F65" t="n">
-        <v>0.109183369181623</v>
+        <v>0.1291181301771042</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02527311116838854</v>
+        <v>0.03104324168628917</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>101</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2308937761.351009</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4344540946.214141</v>
+        <v>5265131797.043753</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1078460156530422</v>
+        <v>0.127293165988287</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05119414753144181</v>
+        <v>0.04785949383804863</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>81</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2172270465.130434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2580601743.574641</v>
+        <v>2113265744.960954</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09132062504257757</v>
+        <v>0.07572230113275795</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03802739844645456</v>
+        <v>0.03760348125329562</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>88</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1290300925.579661</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5472175400.10418</v>
+        <v>4466628028.519784</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1158210646469069</v>
+        <v>0.09977204809588459</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04127961842105225</v>
+        <v>0.05047599524375313</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>90</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2736087785.050805</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2169030744.558925</v>
+        <v>2086102211.748828</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1190290971098807</v>
+        <v>0.1617075558147</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04296400293844663</v>
+        <v>0.0429780153228775</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1084515399.067274</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3650396495.871127</v>
+        <v>2326720444.383234</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06408952457263099</v>
+        <v>0.07330356117679936</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03031467527969347</v>
+        <v>0.04625837149922209</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>80</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1825198267.210868</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4531203816.494025</v>
+        <v>3754261431.375816</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1181122358498886</v>
+        <v>0.1465838477622956</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02310274372057186</v>
+        <v>0.02727198770625007</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>102</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2265601978.937097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1395833365.02643</v>
+        <v>1838266158.425594</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1043965420091104</v>
+        <v>0.09262963845551633</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05014694048026338</v>
+        <v>0.03440412316589476</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>697916726.3147994</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3301426250.83725</v>
+        <v>2401706053.239502</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1063014974716378</v>
+        <v>0.08164995504954929</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04639603225991729</v>
+        <v>0.04027483869283727</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>105</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1650713093.799312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2500393970.593204</v>
+        <v>3824041536.042059</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1228947198821587</v>
+        <v>0.1212162652020815</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02437321466394301</v>
+        <v>0.02502270405941383</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>95</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1250197093.847322</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2370156501.229594</v>
+        <v>2429615327.035306</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1560933546008887</v>
+        <v>0.1533336808677878</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02533419548595825</v>
+        <v>0.03640217031851502</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1185078180.158922</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3239784669.266794</v>
+        <v>3725486774.80466</v>
       </c>
       <c r="F76" t="n">
-        <v>0.108200240989892</v>
+        <v>0.1167144473209564</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02132763076463209</v>
+        <v>0.02294962329451272</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1619892287.442032</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1868859828.012459</v>
+        <v>2138214296.893814</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1675675144213362</v>
+        <v>0.1564723929781574</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03024017334068068</v>
+        <v>0.01992070381582512</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>934429956.1242959</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3358560323.443146</v>
+        <v>3934305688.013952</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1367890277977779</v>
+        <v>0.08778585980854203</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04044305756854532</v>
+        <v>0.04028078947152952</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>97</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1679280173.327935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1277513596.867379</v>
+        <v>1273519167.684731</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1624630759236599</v>
+        <v>0.1419665188270672</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03139148057798154</v>
+        <v>0.0249026238691529</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>638756793.7454989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5221768022.967341</v>
+        <v>3780377805.831206</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1008719979535814</v>
+        <v>0.09488548178171426</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02517524741368537</v>
+        <v>0.0319565511042238</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>58</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2610884071.705779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3494340013.707057</v>
+        <v>5203270339.04357</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1358199148621056</v>
+        <v>0.09082275723025166</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02669783433107088</v>
+        <v>0.02342376017722765</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1747169951.271828</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5480622613.57771</v>
+        <v>5079331361.997639</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2047983721998589</v>
+        <v>0.1387412923216104</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02150192804049477</v>
+        <v>0.0210339867484166</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2740311263.922349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2030877580.0883</v>
+        <v>2025753983.845637</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1080739421545917</v>
+        <v>0.1527766128146593</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03576952061649362</v>
+        <v>0.02883632728763631</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1015438779.160087</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1661420960.271907</v>
+        <v>2579349699.56265</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1094510802876942</v>
+        <v>0.08001919704584706</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0338883871561145</v>
+        <v>0.03573688395773392</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>830710534.7108549</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2575313692.491499</v>
+        <v>2852731664.279473</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1796792633241147</v>
+        <v>0.1196937992544876</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05169875557702357</v>
+        <v>0.05660593955765924</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>105</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1287656859.527456</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2030719305.404745</v>
+        <v>2620313277.481541</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1450814721142513</v>
+        <v>0.1260922335753803</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02655561481138023</v>
+        <v>0.01724682650402828</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1015359684.579877</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>948668784.2638088</v>
+        <v>1044339736.400047</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1744782554703045</v>
+        <v>0.1464690332016561</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02676907395895355</v>
+        <v>0.0335105227162186</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>474334383.3029332</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2982899415.678552</v>
+        <v>2763534871.99009</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1118384507315666</v>
+        <v>0.1282810201893724</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02589254131282178</v>
+        <v>0.03935188598094449</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>110</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1491449736.587459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2405788022.929882</v>
+        <v>2564827235.211287</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1514184680540386</v>
+        <v>0.1067997957438027</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03287492520597141</v>
+        <v>0.03371800525691961</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>96</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1202894093.129046</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1774040181.779997</v>
+        <v>1732607777.034861</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08460663538769521</v>
+        <v>0.1350754308414481</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03939278201181837</v>
+        <v>0.0540575753173965</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>887020119.7737626</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1631590697.644021</v>
+        <v>2005674628.019453</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1590679206433983</v>
+        <v>0.1719218549513667</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04600438803903818</v>
+        <v>0.04479295837838954</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>815795370.2151172</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1969410915.063252</v>
+        <v>2448802633.984946</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1094123355818751</v>
+        <v>0.09274500715101511</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04242776640957174</v>
+        <v>0.03541501442411694</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>71</v>
-      </c>
-      <c r="J92" t="n">
-        <v>984705401.3894869</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3283357419.909602</v>
+        <v>4723533916.720775</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1111867921655346</v>
+        <v>0.1244215446753457</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04161314821778221</v>
+        <v>0.03918836437270064</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>84</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1641678756.910989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1858388256.75379</v>
+        <v>2202984826.736547</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1147927226556556</v>
+        <v>0.1155793486537148</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03801721482296571</v>
+        <v>0.03171640323853388</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>929194108.3006595</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2645750308.203681</v>
+        <v>2704557958.976383</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08768985608582706</v>
+        <v>0.09528906276302249</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03458686342943181</v>
+        <v>0.0509892813511053</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1322875179.585366</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2105961120.826433</v>
+        <v>1870985385.700403</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08854435753453531</v>
+        <v>0.1075176922029137</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03501653412779068</v>
+        <v>0.03596220989594597</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1052980536.07191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4266315047.306017</v>
+        <v>4780663578.180761</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1576773044642686</v>
+        <v>0.1307875480567343</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0213394176667928</v>
+        <v>0.01995249784688534</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>91</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2133157601.441442</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3433597344.914547</v>
+        <v>2726202615.418021</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1205664659089189</v>
+        <v>0.09996171993703365</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02644192432457904</v>
+        <v>0.02411204133909474</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1716798686.548739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2751435025.866518</v>
+        <v>3079804284.602847</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1069120610244357</v>
+        <v>0.1103426994680879</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03457485942368115</v>
+        <v>0.02312360719931481</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>87</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1375717480.847245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2931922989.201176</v>
+        <v>4686754852.079567</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1582933986403932</v>
+        <v>0.1225832140204432</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01706453590279898</v>
+        <v>0.01927019655122772</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1465961480.009382</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3184072422.411133</v>
+        <v>2236633926.526251</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1460830045187903</v>
+        <v>0.1659113486066328</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04042361346507854</v>
+        <v>0.05047880979892092</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>111</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1592036324.571376</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_279.xlsx
+++ b/output/fit_clients/fit_round_279.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2065474212.526936</v>
+        <v>1896675802.23981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09061519956759923</v>
+        <v>0.06941300275497585</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03708274832733008</v>
+        <v>0.03034167728257964</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2032905529.120797</v>
+        <v>2194287871.189981</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1668977169485173</v>
+        <v>0.1459385278415712</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04998845034860658</v>
+        <v>0.03151073548860572</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4439165039.811559</v>
+        <v>4771246983.017504</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1651428169547578</v>
+        <v>0.11869319987807</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03052552540179192</v>
+        <v>0.02431364709873141</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3874551906.320817</v>
+        <v>3818544594.640962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08944018440550121</v>
+        <v>0.06969727446762863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04123788815120525</v>
+        <v>0.05038983809876606</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2201419466.534043</v>
+        <v>2715270366.685063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1143511030504021</v>
+        <v>0.107262239243569</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03851527954981426</v>
+        <v>0.04094126925300517</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1910389913.721021</v>
+        <v>2497409094.988157</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0674697442467769</v>
+        <v>0.07971876824985073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03267561126004433</v>
+        <v>0.04651279521709244</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3929781608.003986</v>
+        <v>3177263957.554451</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2117389850812565</v>
+        <v>0.1784499486120758</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02395130094022971</v>
+        <v>0.03138905535854439</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1495532888.672588</v>
+        <v>1741783312.491359</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1709023333446209</v>
+        <v>0.175896018461003</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02930966377569492</v>
+        <v>0.02788966324673765</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3608778262.566795</v>
+        <v>5378516821.999429</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2031743064740245</v>
+        <v>0.2131532009445379</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04174831159085523</v>
+        <v>0.04387676692086201</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3842916636.504068</v>
+        <v>4059426188.134477</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1364120334628713</v>
+        <v>0.1377268982646186</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04178985768012129</v>
+        <v>0.03503086013795824</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2229282804.842909</v>
+        <v>2284583278.994043</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1733118859648011</v>
+        <v>0.1748372369318942</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04521539043395874</v>
+        <v>0.03636399248893796</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3833323000.708971</v>
+        <v>3732017647.305122</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07095355700423711</v>
+        <v>0.09144969278811869</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02767385047720668</v>
+        <v>0.02989592836298327</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3456927307.516561</v>
+        <v>3579246466.934113</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1565469137457523</v>
+        <v>0.1316821259304388</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02992035195424237</v>
+        <v>0.04045874577392299</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1550762739.385038</v>
+        <v>1762974935.351576</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06803582698795388</v>
+        <v>0.08462923097968324</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03615185980151549</v>
+        <v>0.0488061335568554</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2841793591.549214</v>
+        <v>2841238945.231007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08987466269198427</v>
+        <v>0.1044181478543667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03396922193778067</v>
+        <v>0.04040969022080302</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3215236722.733449</v>
+        <v>3276710746.111349</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1104328334002291</v>
+        <v>0.1574454403298325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03897381227449057</v>
+        <v>0.03615579112256859</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2867047148.829736</v>
+        <v>3045964652.428176</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1601937286249767</v>
+        <v>0.1114595460324552</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02118295766516241</v>
+        <v>0.02220627383808989</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1264419257.141352</v>
+        <v>961763060.852548</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1321974066353498</v>
+        <v>0.1401655810791775</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01905728040410485</v>
+        <v>0.0171322223157824</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2102752481.936305</v>
+        <v>2603045594.367591</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1377401413559205</v>
+        <v>0.1503475592055782</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02475975132742249</v>
+        <v>0.03009514437115709</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1808651091.261429</v>
+        <v>2160039519.19804</v>
       </c>
       <c r="F21" t="n">
-        <v>0.100206802790867</v>
+        <v>0.07301102456369224</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03537631148590076</v>
+        <v>0.04105303264127858</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2922545285.966447</v>
+        <v>3314778182.396589</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1094762443194262</v>
+        <v>0.1122789821088582</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05235086264751939</v>
+        <v>0.05511538958225474</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1543565426.004289</v>
+        <v>1020696124.564311</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1796039715057113</v>
+        <v>0.1130825699338392</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04038827138407892</v>
+        <v>0.05279651348086363</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4145598947.216222</v>
+        <v>3725629235.143738</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1104726152193844</v>
+        <v>0.1194256796241054</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03578610620258872</v>
+        <v>0.03484763436395445</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1356117696.647337</v>
+        <v>901339964.0350446</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09886867837821291</v>
+        <v>0.1131374090724844</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02117287259104553</v>
+        <v>0.02959985557835541</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1424539162.529126</v>
+        <v>1457671530.327788</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08940671295625852</v>
+        <v>0.0923454818747747</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02698571434060556</v>
+        <v>0.03235410664844338</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3245420948.090593</v>
+        <v>3009779833.094029</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1215846254029173</v>
+        <v>0.1105642589726796</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02551512446503836</v>
+        <v>0.01862366462482527</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2616382701.015929</v>
+        <v>3688298289.3723</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1281922883677661</v>
+        <v>0.1143475060556104</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04115191448974274</v>
+        <v>0.04287703119485872</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5913552064.814534</v>
+        <v>4122346397.546313</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1054484527032452</v>
+        <v>0.1511180694971011</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03620448284155484</v>
+        <v>0.04659959392822286</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1582742574.626436</v>
+        <v>2013314321.534318</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09096274923979022</v>
+        <v>0.08698581159202363</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02532485939739217</v>
+        <v>0.0399017766088868</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1260277926.757546</v>
+        <v>1324817351.208608</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08561168877102483</v>
+        <v>0.09406334606524895</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05226035653303811</v>
+        <v>0.04657188621000935</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1694804829.255956</v>
+        <v>1762659335.866148</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09359038248216825</v>
+        <v>0.1086809902245993</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03175119213456003</v>
+        <v>0.02846092971564467</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2363598046.878507</v>
+        <v>2625526138.0008</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1882224515090435</v>
+        <v>0.1468027434503313</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04083618406780014</v>
+        <v>0.05940734907869352</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1492573034.377262</v>
+        <v>1153811125.619968</v>
       </c>
       <c r="F34" t="n">
-        <v>0.117744971000009</v>
+        <v>0.1009200758783742</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0258578653856424</v>
+        <v>0.02198731254134285</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1036615138.251054</v>
+        <v>923501673.9307032</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09358945127886852</v>
+        <v>0.07717059944689843</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04205496726040046</v>
+        <v>0.0451139852794584</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2456422174.298584</v>
+        <v>2905554686.613351</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1208618413110746</v>
+        <v>0.121172471983745</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02128589998887072</v>
+        <v>0.02110375680979282</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2296931764.231087</v>
+        <v>1914404646.80309</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1116098561230499</v>
+        <v>0.09856850080653967</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0410154018189992</v>
+        <v>0.04252947540296597</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2025006743.907282</v>
+        <v>1631440453.262057</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1215787815200956</v>
+        <v>0.1132336284451849</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02818019767337706</v>
+        <v>0.02838485729698534</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1570378747.146025</v>
+        <v>2170314207.421919</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1601113950405034</v>
+        <v>0.1855616118080224</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03054824538453916</v>
+        <v>0.02382892586718053</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1807375043.252329</v>
+        <v>1209299025.008928</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1052224374131653</v>
+        <v>0.1597151083785213</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04609975237581342</v>
+        <v>0.04135863627595851</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2399866172.431874</v>
+        <v>2547389382.708838</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1613872383013882</v>
+        <v>0.1059313316155053</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04143014501250666</v>
+        <v>0.03618929868902097</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2845033608.135331</v>
+        <v>3301982652.700056</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1098295718289835</v>
+        <v>0.1240061802778454</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04187148234534158</v>
+        <v>0.04524641549043701</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2339382319.364132</v>
+        <v>2551673143.333842</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1707518259959653</v>
+        <v>0.181254813790785</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02301131093493148</v>
+        <v>0.01623569978165227</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2094849819.460357</v>
+        <v>1678905060.976133</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06435385644402322</v>
+        <v>0.09405495957490709</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03393316205517632</v>
+        <v>0.02877684545425279</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2217719154.859303</v>
+        <v>1723951740.514264</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1607146724328852</v>
+        <v>0.1829295574139738</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03810351592973054</v>
+        <v>0.05323205676074326</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4864977421.319935</v>
+        <v>3780785358.690002</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1519942526617497</v>
+        <v>0.1408681756124991</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04040667556445685</v>
+        <v>0.04042485614484129</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3476385924.484336</v>
+        <v>4617148578.760779</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1727967692544789</v>
+        <v>0.1432024837943945</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0510386506049773</v>
+        <v>0.04919986606843936</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2936043751.104136</v>
+        <v>3032717774.524219</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09616622363833531</v>
+        <v>0.07853312170558122</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02840918514242582</v>
+        <v>0.03292410741425612</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1252795885.895564</v>
+        <v>1825894596.172765</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1330741772146398</v>
+        <v>0.1879016430947077</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04375774594717279</v>
+        <v>0.04451682693950666</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3017219248.012851</v>
+        <v>3956779942.534994</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1136360690402992</v>
+        <v>0.1519796020447211</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04663658955283204</v>
+        <v>0.03560932419080324</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1214422684.600856</v>
+        <v>1376646916.378721</v>
       </c>
       <c r="F51" t="n">
-        <v>0.140985852300843</v>
+        <v>0.173188932332699</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05447818851375575</v>
+        <v>0.04792340858926078</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4044695147.804829</v>
+        <v>3486750368.741431</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09450030928078818</v>
+        <v>0.09023065503915935</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05059913712841516</v>
+        <v>0.04894912956212283</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2681927146.52372</v>
+        <v>3699992197.421404</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1636146575242075</v>
+        <v>0.1939528592304463</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02331694457714944</v>
+        <v>0.02969761710492522</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4339475812.215618</v>
+        <v>3570637249.068731</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1063026148256008</v>
+        <v>0.1190709912648657</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05160642932794366</v>
+        <v>0.04931303894532809</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3435676917.281189</v>
+        <v>3153445797.096109</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1561534449430547</v>
+        <v>0.138996170325661</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02688011911201763</v>
+        <v>0.02950559488405557</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1457727124.890293</v>
+        <v>1603081623.00874</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1159794963797535</v>
+        <v>0.1593139442525208</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03919145303936085</v>
+        <v>0.04660722594675491</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4580210088.645315</v>
+        <v>3270870975.51684</v>
       </c>
       <c r="F57" t="n">
-        <v>0.172369153621026</v>
+        <v>0.1305211388571629</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02521828396649177</v>
+        <v>0.01974575601271863</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1536623769.486696</v>
+        <v>1662349117.939003</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1751129597091222</v>
+        <v>0.1656546087300756</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02422706894955822</v>
+        <v>0.02677736159636521</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4534168174.619643</v>
+        <v>4334379381.963913</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1115988014865842</v>
+        <v>0.1302797070204549</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04634663055536491</v>
+        <v>0.03333878939948345</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2950961837.591201</v>
+        <v>3329324008.344173</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1832677008548669</v>
+        <v>0.1854774481514502</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03075743782148</v>
+        <v>0.03285312273576824</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2689283907.033817</v>
+        <v>2822851331.18732</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1181868980481408</v>
+        <v>0.161548937265737</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02755559492085837</v>
+        <v>0.02021258999450388</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2110867085.560992</v>
+        <v>1508049706.146082</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1838936562263226</v>
+        <v>0.1714523589591309</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04243677094631015</v>
+        <v>0.04762916287497091</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4037859279.61761</v>
+        <v>5007501082.149902</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08194948573940311</v>
+        <v>0.07075872780294841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03658187233126961</v>
+        <v>0.03451999796467375</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4916424120.405291</v>
+        <v>3479343799.157947</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1362476975768212</v>
+        <v>0.1617556232931943</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02466897109654592</v>
+        <v>0.02971051439746537</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5491671376.524397</v>
+        <v>5238674011.214642</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1291181301771042</v>
+        <v>0.1188290482208644</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03104324168628917</v>
+        <v>0.02489281192778452</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5265131797.043753</v>
+        <v>3694066582.352908</v>
       </c>
       <c r="F66" t="n">
-        <v>0.127293165988287</v>
+        <v>0.1545760135206074</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04785949383804863</v>
+        <v>0.03622994523898286</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2113265744.960954</v>
+        <v>2341917155.927455</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07572230113275795</v>
+        <v>0.07157245115474924</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03760348125329562</v>
+        <v>0.03766309571430197</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4466628028.519784</v>
+        <v>5179018399.38521</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09977204809588459</v>
+        <v>0.1038844694289389</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05047599524375313</v>
+        <v>0.04622919397216634</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2086102211.748828</v>
+        <v>2464442385.754139</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1617075558147</v>
+        <v>0.1539037712120889</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0429780153228775</v>
+        <v>0.05399200856379633</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2326720444.383234</v>
+        <v>2265020828.463459</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07330356117679936</v>
+        <v>0.09951163530709894</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04625837149922209</v>
+        <v>0.04461210125338753</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3754261431.375816</v>
+        <v>4106559932.617332</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1465838477622956</v>
+        <v>0.1245709402858391</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02727198770625007</v>
+        <v>0.02763502707924872</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1838266158.425594</v>
+        <v>1523033724.422992</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09262963845551633</v>
+        <v>0.09299645017580006</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03440412316589476</v>
+        <v>0.04809121195324685</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2401706053.239502</v>
+        <v>3129434255.082761</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08164995504954929</v>
+        <v>0.1118528340226092</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04027483869283727</v>
+        <v>0.05120270074830833</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3824041536.042059</v>
+        <v>3567044668.73021</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1212162652020815</v>
+        <v>0.1799816328071503</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02502270405941383</v>
+        <v>0.02147774704122089</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2429615327.035306</v>
+        <v>1823486619.104025</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1533336808677878</v>
+        <v>0.1067153245830921</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03640217031851502</v>
+        <v>0.03063249667144589</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3725486774.80466</v>
+        <v>4223439192.959661</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1167144473209564</v>
+        <v>0.08276623516701412</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02294962329451272</v>
+        <v>0.03085639320900778</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2138214296.893814</v>
+        <v>1942738676.172518</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1564723929781574</v>
+        <v>0.1234975337660687</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01992070381582512</v>
+        <v>0.02624388905801762</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3934305688.013952</v>
+        <v>4781872334.73434</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08778585980854203</v>
+        <v>0.09548276789879859</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04028078947152952</v>
+        <v>0.05369863233386112</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1273519167.684731</v>
+        <v>1259240366.807717</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1419665188270672</v>
+        <v>0.1607925045823851</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0249026238691529</v>
+        <v>0.02767288085558311</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3780377805.831206</v>
+        <v>3530163608.769138</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09488548178171426</v>
+        <v>0.06727457164097608</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0319565511042238</v>
+        <v>0.03710966521815101</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5203270339.04357</v>
+        <v>5001221738.591208</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09082275723025166</v>
+        <v>0.1035098926483186</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02342376017722765</v>
+        <v>0.0220046717138128</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5079331361.997639</v>
+        <v>5150090771.463349</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1387412923216104</v>
+        <v>0.2155946518569467</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0210339867484166</v>
+        <v>0.02329812064641415</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2025753983.845637</v>
+        <v>1575170419.156169</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1527766128146593</v>
+        <v>0.1562088673645115</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02883632728763631</v>
+        <v>0.02933066136488894</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2579349699.56265</v>
+        <v>2472482266.111635</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08001919704584706</v>
+        <v>0.1081284128637078</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03573688395773392</v>
+        <v>0.04257639256909722</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2852731664.279473</v>
+        <v>2382404251.452506</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1196937992544876</v>
+        <v>0.1291825172443849</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05660593955765924</v>
+        <v>0.0517421335347882</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2620313277.481541</v>
+        <v>2714134275.906871</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1260922335753803</v>
+        <v>0.162588663790813</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01724682650402828</v>
+        <v>0.01847444630619346</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1044339736.400047</v>
+        <v>1337142021.073419</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1464690332016561</v>
+        <v>0.1865023794367051</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0335105227162186</v>
+        <v>0.02716982271902547</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2763534871.99009</v>
+        <v>3033822215.668318</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1282810201893724</v>
+        <v>0.1524104427178611</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03935188598094449</v>
+        <v>0.03362575926527792</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2564827235.211287</v>
+        <v>3297916367.743679</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1067997957438027</v>
+        <v>0.1104479190158059</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03371800525691961</v>
+        <v>0.03588633865614826</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1732607777.034861</v>
+        <v>2031441345.259626</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1350754308414481</v>
+        <v>0.1280293866482301</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0540575753173965</v>
+        <v>0.05053502444714889</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2005674628.019453</v>
+        <v>2014713476.505367</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1719218549513667</v>
+        <v>0.1533361438470061</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04479295837838954</v>
+        <v>0.0508617346401612</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2448802633.984946</v>
+        <v>2644850734.601117</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09274500715101511</v>
+        <v>0.1080017673450029</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03541501442411694</v>
+        <v>0.04725867996698646</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4723533916.720775</v>
+        <v>4383208474.672077</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1244215446753457</v>
+        <v>0.1411903211245035</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03918836437270064</v>
+        <v>0.03519543685910733</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2202984826.736547</v>
+        <v>2145223839.713578</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1155793486537148</v>
+        <v>0.1079885427512113</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03171640323853388</v>
+        <v>0.03288851825240182</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2704557958.976383</v>
+        <v>3190750448.569923</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09528906276302249</v>
+        <v>0.1227424338263298</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0509892813511053</v>
+        <v>0.03576858066489486</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1870985385.700403</v>
+        <v>2051603686.943418</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1075176922029137</v>
+        <v>0.1410845276301581</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03596220989594597</v>
+        <v>0.04504572982668584</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4780663578.180761</v>
+        <v>4136634080.15802</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1307875480567343</v>
+        <v>0.1121935303354437</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01995249784688534</v>
+        <v>0.0263799589600084</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2726202615.418021</v>
+        <v>3777361649.668852</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09996171993703365</v>
+        <v>0.09850760721746414</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02411204133909474</v>
+        <v>0.02317211249319898</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3079804284.602847</v>
+        <v>3244876568.606252</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1103426994680879</v>
+        <v>0.1485211346824076</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02312360719931481</v>
+        <v>0.03413613996168793</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4686754852.079567</v>
+        <v>4665580851.610762</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1225832140204432</v>
+        <v>0.1701553196632065</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01927019655122772</v>
+        <v>0.02172578195822432</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2236633926.526251</v>
+        <v>2476937162.754004</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1659113486066328</v>
+        <v>0.2158689564937201</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05047880979892092</v>
+        <v>0.04794760061747821</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_279.xlsx
+++ b/output/fit_clients/fit_round_279.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1896675802.23981</v>
+        <v>2274258280.13038</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06941300275497585</v>
+        <v>0.09222832051190138</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03034167728257964</v>
+        <v>0.03306696660227652</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2194287871.189981</v>
+        <v>2260396757.965782</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1459385278415712</v>
+        <v>0.1213403701358143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03151073548860572</v>
+        <v>0.0367459052645437</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4771246983.017504</v>
+        <v>3949182420.359823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11869319987807</v>
+        <v>0.113951015887675</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02431364709873141</v>
+        <v>0.02705696263733146</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>149</v>
+      </c>
+      <c r="J4" t="n">
+        <v>278</v>
+      </c>
+      <c r="K4" t="n">
+        <v>89.02756449195712</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3818544594.640962</v>
+        <v>3857327318.396144</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06969727446762863</v>
+        <v>0.1045072317926924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05038983809876606</v>
+        <v>0.04806107382159783</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>112</v>
+      </c>
+      <c r="J5" t="n">
+        <v>279</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2715270366.685063</v>
+        <v>2621807335.18678</v>
       </c>
       <c r="F6" t="n">
-        <v>0.107262239243569</v>
+        <v>0.1133079895578583</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04094126925300517</v>
+        <v>0.0435309224546448</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2497409094.988157</v>
+        <v>2728118963.393705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07971876824985073</v>
+        <v>0.06349673005256855</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04651279521709244</v>
+        <v>0.04340311644358072</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3177263957.554451</v>
+        <v>3500087272.180824</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1784499486120758</v>
+        <v>0.1792239394839433</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03138905535854439</v>
+        <v>0.02980253509184495</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>73</v>
+      </c>
+      <c r="J8" t="n">
+        <v>279</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1741783312.491359</v>
+        <v>1693686632.965038</v>
       </c>
       <c r="F9" t="n">
-        <v>0.175896018461003</v>
+        <v>0.1888581264506878</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02788966324673765</v>
+        <v>0.03406965087482952</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5378516821.999429</v>
+        <v>4391039829.003138</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2131532009445379</v>
+        <v>0.1717838886740084</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04387676692086201</v>
+        <v>0.05429968637219153</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>250</v>
+      </c>
+      <c r="J10" t="n">
+        <v>279</v>
+      </c>
+      <c r="K10" t="n">
+        <v>94.37263131203792</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4059426188.134477</v>
+        <v>2666980016.951388</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1377268982646186</v>
+        <v>0.1899113081787177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03503086013795824</v>
+        <v>0.04268045929390601</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>112</v>
+      </c>
+      <c r="J11" t="n">
+        <v>277</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2284583278.994043</v>
+        <v>2108973094.848646</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1748372369318942</v>
+        <v>0.1503564207185904</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03636399248893796</v>
+        <v>0.04505437558235116</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3732017647.305122</v>
+        <v>3450407236.188997</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09144969278811869</v>
+        <v>0.09464740660718836</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02989592836298327</v>
+        <v>0.02820214337502366</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>142</v>
+      </c>
+      <c r="J13" t="n">
+        <v>278</v>
+      </c>
+      <c r="K13" t="n">
+        <v>73.02210588551729</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3579246466.934113</v>
+        <v>2582890940.296986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1316821259304388</v>
+        <v>0.1558226533931889</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04045874577392299</v>
+        <v>0.03228186150258261</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>276</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1762974935.351576</v>
+        <v>1238291084.24367</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08462923097968324</v>
+        <v>0.1006956870196465</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0488061335568554</v>
+        <v>0.03795588224825099</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2841238945.231007</v>
+        <v>2198663158.850377</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1044181478543667</v>
+        <v>0.07743473597172507</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04040969022080302</v>
+        <v>0.03143353010741032</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3276710746.111349</v>
+        <v>5137598708.111105</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1574454403298325</v>
+        <v>0.1550075532696515</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03615579112256859</v>
+        <v>0.04070393947012054</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>133</v>
+      </c>
+      <c r="J17" t="n">
+        <v>279</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3045964652.428176</v>
+        <v>2638395739.111416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1114595460324552</v>
+        <v>0.115725015757646</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02220627383808989</v>
+        <v>0.02789721160983537</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>961763060.852548</v>
+        <v>1372224510.72927</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1401655810791775</v>
+        <v>0.1550004623600472</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0171322223157824</v>
+        <v>0.02281177749776165</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2603045594.367591</v>
+        <v>2808125617.410899</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1503475592055782</v>
+        <v>0.1286313129819516</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03009514437115709</v>
+        <v>0.03038881439470922</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2160039519.19804</v>
+        <v>2173993823.678841</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07301102456369224</v>
+        <v>0.07083999151980461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04105303264127858</v>
+        <v>0.04061941561408328</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3314778182.396589</v>
+        <v>3464304785.796118</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1122789821088582</v>
+        <v>0.1436763854282073</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05511538958225474</v>
+        <v>0.04388476801933199</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>74</v>
+      </c>
+      <c r="J22" t="n">
+        <v>278</v>
+      </c>
+      <c r="K22" t="n">
+        <v>70.8883005113267</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1020696124.564311</v>
+        <v>1546569089.008054</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1130825699338392</v>
+        <v>0.1231572381900701</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05279651348086363</v>
+        <v>0.05396906541840491</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3725629235.143738</v>
+        <v>3491338082.293376</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1194256796241054</v>
+        <v>0.1346802711300623</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03484763436395445</v>
+        <v>0.03578643550842719</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>279</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>901339964.0350446</v>
+        <v>1176994500.838729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1131374090724844</v>
+        <v>0.1147919914793748</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02959985557835541</v>
+        <v>0.02674955238331649</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1457671530.327788</v>
+        <v>1376741174.79612</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0923454818747747</v>
+        <v>0.100561537562553</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03235410664844338</v>
+        <v>0.03117116412462261</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3009779833.094029</v>
+        <v>3708935546.739995</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1105642589726796</v>
+        <v>0.1326541884811789</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01862366462482527</v>
+        <v>0.02161974812122308</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>114</v>
+      </c>
+      <c r="J27" t="n">
+        <v>279</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3688298289.3723</v>
+        <v>2600608331.025545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1143475060556104</v>
+        <v>0.09584812701823994</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04287703119485872</v>
+        <v>0.04085422745772953</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>57</v>
+      </c>
+      <c r="J28" t="n">
+        <v>277</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4122346397.546313</v>
+        <v>4829940249.860331</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1511180694971011</v>
+        <v>0.133682421401191</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04659959392822286</v>
+        <v>0.04556438074124285</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>266</v>
+      </c>
+      <c r="J29" t="n">
+        <v>279</v>
+      </c>
+      <c r="K29" t="n">
+        <v>94.27436518062248</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2013314321.534318</v>
+        <v>1601464264.878463</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08698581159202363</v>
+        <v>0.08850815173810099</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0399017766088868</v>
+        <v>0.02438041111041135</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1324817351.208608</v>
+        <v>1440966390.435281</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09406334606524895</v>
+        <v>0.1029566521905927</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04657188621000935</v>
+        <v>0.03419431893678074</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1762659335.866148</v>
+        <v>1773553125.912681</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1086809902245993</v>
+        <v>0.09998256966121345</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02846092971564467</v>
+        <v>0.03762931901381406</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2625526138.0008</v>
+        <v>2879356127.838833</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1468027434503313</v>
+        <v>0.1317629259688739</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05940734907869352</v>
+        <v>0.05675815956161738</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1153811125.619968</v>
+        <v>1384828464.349391</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1009200758783742</v>
+        <v>0.1004683723272492</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02198731254134285</v>
+        <v>0.02152518087592309</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>923501673.9307032</v>
+        <v>1300750394.676637</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07717059944689843</v>
+        <v>0.09662682829002879</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0451139852794584</v>
+        <v>0.04276238534849661</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2905554686.613351</v>
+        <v>2573783720.441309</v>
       </c>
       <c r="F36" t="n">
-        <v>0.121172471983745</v>
+        <v>0.1238750243469842</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02110375680979282</v>
+        <v>0.0246908180921075</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1914404646.80309</v>
+        <v>2579093538.401156</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09856850080653967</v>
+        <v>0.07784399660499695</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04252947540296597</v>
+        <v>0.0415879193523183</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1631440453.262057</v>
+        <v>1390649747.325941</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1132336284451849</v>
+        <v>0.09119011063676108</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02838485729698534</v>
+        <v>0.03199313320175808</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2170314207.421919</v>
+        <v>1648129087.929301</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1855616118080224</v>
+        <v>0.1778511950054908</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02382892586718053</v>
+        <v>0.02774268130238383</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1209299025.008928</v>
+        <v>1486802028.194403</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1597151083785213</v>
+        <v>0.1338482825318066</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04135863627595851</v>
+        <v>0.05006024441829466</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2547389382.708838</v>
+        <v>2899858408.570128</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1059313316155053</v>
+        <v>0.103268525172353</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03618929868902097</v>
+        <v>0.0374899317063936</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3301982652.700056</v>
+        <v>3137387396.342801</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1240061802778454</v>
+        <v>0.1067570104955867</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04524641549043701</v>
+        <v>0.02830675561855943</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>117</v>
+      </c>
+      <c r="J42" t="n">
+        <v>277</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2551673143.333842</v>
+        <v>2812751341.271642</v>
       </c>
       <c r="F43" t="n">
-        <v>0.181254813790785</v>
+        <v>0.1530614099121887</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01623569978165227</v>
+        <v>0.01893796375986094</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1678905060.976133</v>
+        <v>2031793058.015581</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09405495957490709</v>
+        <v>0.07238637606157514</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02877684545425279</v>
+        <v>0.02735557667803401</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1723951740.514264</v>
+        <v>2295148820.162174</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1829295574139738</v>
+        <v>0.1797539940219555</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05323205676074326</v>
+        <v>0.05626765655258435</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3780785358.690002</v>
+        <v>5049053785.257457</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1408681756124991</v>
+        <v>0.1450282807915927</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04042485614484129</v>
+        <v>0.03764131050745757</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>163</v>
+      </c>
+      <c r="J46" t="n">
+        <v>279</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4617148578.760779</v>
+        <v>3373066328.720404</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1432024837943945</v>
+        <v>0.1925785909240487</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04919986606843936</v>
+        <v>0.05918776830575274</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>125</v>
+      </c>
+      <c r="J47" t="n">
+        <v>279</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3032717774.524219</v>
+        <v>3216826310.581422</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07853312170558122</v>
+        <v>0.0966646538579411</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03292410741425612</v>
+        <v>0.03867290199790842</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>139</v>
+      </c>
+      <c r="J48" t="n">
+        <v>278</v>
+      </c>
+      <c r="K48" t="n">
+        <v>66.91882262127302</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1825894596.172765</v>
+        <v>1520770710.869396</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1879016430947077</v>
+        <v>0.1649928936364037</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04451682693950666</v>
+        <v>0.03220946063043165</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3956779942.534994</v>
+        <v>3799244598.264717</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1519796020447211</v>
+        <v>0.1572990050292391</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03560932419080324</v>
+        <v>0.03978078926309139</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>89</v>
+      </c>
+      <c r="J50" t="n">
+        <v>279</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1376646916.378721</v>
+        <v>1068186590.37019</v>
       </c>
       <c r="F51" t="n">
-        <v>0.173188932332699</v>
+        <v>0.19387841442578</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04792340858926078</v>
+        <v>0.05185278710641998</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3486750368.741431</v>
+        <v>5249017455.413231</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09023065503915935</v>
+        <v>0.1291855324335888</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04894912956212283</v>
+        <v>0.05195014264273667</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>175</v>
+      </c>
+      <c r="J52" t="n">
+        <v>279</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3699992197.421404</v>
+        <v>3187846981.83943</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1939528592304463</v>
+        <v>0.1663258132093181</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02969761710492522</v>
+        <v>0.03555105857499331</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2333,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3570637249.068731</v>
+        <v>3655992916.210272</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1190709912648657</v>
+        <v>0.1041679167330794</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04931303894532809</v>
+        <v>0.04564801420105537</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>147</v>
+      </c>
+      <c r="J54" t="n">
+        <v>279</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2362,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3153445797.096109</v>
+        <v>4033227852.220896</v>
       </c>
       <c r="F55" t="n">
-        <v>0.138996170325661</v>
+        <v>0.2240018091323381</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02950559488405557</v>
+        <v>0.02493263934012302</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>126</v>
+      </c>
+      <c r="J55" t="n">
+        <v>279</v>
+      </c>
+      <c r="K55" t="n">
+        <v>92.36579027899829</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1603081623.00874</v>
+        <v>1327865163.297023</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1593139442525208</v>
+        <v>0.1522073826704066</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04660722594675491</v>
+        <v>0.04427691342455758</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2434,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3270870975.51684</v>
+        <v>4551482733.161994</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1305211388571629</v>
+        <v>0.1825046026413548</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01974575601271863</v>
+        <v>0.02146018369684464</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>112</v>
+      </c>
+      <c r="J57" t="n">
+        <v>279</v>
+      </c>
+      <c r="K57" t="n">
+        <v>92.93345067064006</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1662349117.939003</v>
+        <v>1364648079.337214</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1656546087300756</v>
+        <v>0.1389738306754604</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02677736159636521</v>
+        <v>0.02562657598622147</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4334379381.963913</v>
+        <v>3715515562.215907</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1302797070204549</v>
+        <v>0.1262417608725353</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03333878939948345</v>
+        <v>0.04271654410881</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>135</v>
+      </c>
+      <c r="J59" t="n">
+        <v>278</v>
+      </c>
+      <c r="K59" t="n">
+        <v>78.41115706249938</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3329324008.344173</v>
+        <v>2963533533.850662</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1854774481514502</v>
+        <v>0.1914964931434443</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03285312273576824</v>
+        <v>0.02843396305098744</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>44</v>
+      </c>
+      <c r="J60" t="n">
+        <v>278</v>
+      </c>
+      <c r="K60" t="n">
+        <v>61.28094682141921</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2822851331.18732</v>
+        <v>3320072005.786663</v>
       </c>
       <c r="F61" t="n">
-        <v>0.161548937265737</v>
+        <v>0.1344812990517496</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02021258999450388</v>
+        <v>0.03201150548402672</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1508049706.146082</v>
+        <v>1936618701.828197</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1714523589591309</v>
+        <v>0.1805606815555309</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04762916287497091</v>
+        <v>0.04523697412696443</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5007501082.149902</v>
+        <v>5177690244.730074</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07075872780294841</v>
+        <v>0.08306739763746088</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03451999796467375</v>
+        <v>0.04146972859951821</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>135</v>
+      </c>
+      <c r="J63" t="n">
+        <v>279</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3479343799.157947</v>
+        <v>4729078533.084579</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1617556232931943</v>
+        <v>0.1838499688863021</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02971051439746537</v>
+        <v>0.02632606185568191</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>137</v>
+      </c>
+      <c r="J64" t="n">
+        <v>278</v>
+      </c>
+      <c r="K64" t="n">
+        <v>91.46566933161574</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5238674011.214642</v>
+        <v>5129352914.854616</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1188290482208644</v>
+        <v>0.1745632681840115</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02489281192778452</v>
+        <v>0.03194902559824692</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>224</v>
+      </c>
+      <c r="J65" t="n">
+        <v>278</v>
+      </c>
+      <c r="K65" t="n">
+        <v>91.53886742954273</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3694066582.352908</v>
+        <v>3507429867.043148</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1545760135206074</v>
+        <v>0.1348491637760401</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03622994523898286</v>
+        <v>0.0368139618770416</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>138</v>
+      </c>
+      <c r="J66" t="n">
+        <v>278</v>
+      </c>
+      <c r="K66" t="n">
+        <v>68.32485376038802</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2341917155.927455</v>
+        <v>2652170339.042709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07157245115474924</v>
+        <v>0.06745155907107345</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03766309571430197</v>
+        <v>0.0426022692582845</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5179018399.38521</v>
+        <v>5211108595.792428</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1038844694289389</v>
+        <v>0.1496315980636968</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04622919397216634</v>
+        <v>0.03603150986328588</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>145</v>
+      </c>
+      <c r="J68" t="n">
+        <v>278</v>
+      </c>
+      <c r="K68" t="n">
+        <v>91.92773514900342</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2464442385.754139</v>
+        <v>2076072800.083244</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1539037712120889</v>
+        <v>0.1582893582743259</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05399200856379633</v>
+        <v>0.04168196303304126</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2265020828.463459</v>
+        <v>2419740618.604584</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09951163530709894</v>
+        <v>0.09983123804940039</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04461210125338753</v>
+        <v>0.049141235336956</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4106559932.617332</v>
+        <v>5562498091.817378</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1245709402858391</v>
+        <v>0.1755897004212132</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02763502707924872</v>
+        <v>0.02222650169894681</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>209</v>
+      </c>
+      <c r="J71" t="n">
+        <v>279</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1523033724.422992</v>
+        <v>1606871468.874856</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09299645017580006</v>
+        <v>0.107736219162</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04809121195324685</v>
+        <v>0.04306212445722992</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3129434255.082761</v>
+        <v>3019338764.952293</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1118528340226092</v>
+        <v>0.1070673289717934</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05120270074830833</v>
+        <v>0.05045198848443369</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3567044668.73021</v>
+        <v>2566623648.355319</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1799816328071503</v>
+        <v>0.1577373315499863</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02147774704122089</v>
+        <v>0.02213330693129039</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1823486619.104025</v>
+        <v>1713510311.606326</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1067153245830921</v>
+        <v>0.1029299044968736</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03063249667144589</v>
+        <v>0.03411534395128065</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4223439192.959661</v>
+        <v>4608154013.453115</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08276623516701412</v>
+        <v>0.09538126587762533</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03085639320900778</v>
+        <v>0.03103766830645242</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>131</v>
+      </c>
+      <c r="J76" t="n">
+        <v>278</v>
+      </c>
+      <c r="K76" t="n">
+        <v>84.3201304310157</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1942738676.172518</v>
+        <v>1434365849.765013</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1234975337660687</v>
+        <v>0.1273533516911627</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02624388905801762</v>
+        <v>0.02843103208734941</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4781872334.73434</v>
+        <v>3939501337.698375</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09548276789879859</v>
+        <v>0.1285982965154724</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05369863233386112</v>
+        <v>0.04857645198942971</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>140</v>
+      </c>
+      <c r="J78" t="n">
+        <v>278</v>
+      </c>
+      <c r="K78" t="n">
+        <v>91.39410345805712</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1259240366.807717</v>
+        <v>1872597134.901986</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1607925045823851</v>
+        <v>0.1353693508821399</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02767288085558311</v>
+        <v>0.04022848633801114</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3530163608.769138</v>
+        <v>3668902822.308498</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06727457164097608</v>
+        <v>0.1010498389681045</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03710966521815101</v>
+        <v>0.0339911875808938</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>136</v>
+      </c>
+      <c r="J80" t="n">
+        <v>279</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5001221738.591208</v>
+        <v>3644719723.750603</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1035098926483186</v>
+        <v>0.1178087547541293</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0220046717138128</v>
+        <v>0.02002506154024854</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>128</v>
+      </c>
+      <c r="J81" t="n">
+        <v>278</v>
+      </c>
+      <c r="K81" t="n">
+        <v>70.92361302300657</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5150090771.463349</v>
+        <v>3796543369.990142</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2155946518569467</v>
+        <v>0.1856137068384115</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02329812064641415</v>
+        <v>0.02929015427838444</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>207</v>
+      </c>
+      <c r="J82" t="n">
+        <v>279</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1575170419.156169</v>
+        <v>2178371773.186888</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1562088673645115</v>
+        <v>0.1217996725790044</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02933066136488894</v>
+        <v>0.04009132113317441</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2472482266.111635</v>
+        <v>2162380726.430482</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1081284128637078</v>
+        <v>0.1041239194044259</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04257639256909722</v>
+        <v>0.03581655964880195</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2382404251.452506</v>
+        <v>2565311423.734343</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1291825172443849</v>
+        <v>0.1725646075274264</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0517421335347882</v>
+        <v>0.04158972343999225</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2714134275.906871</v>
+        <v>1927415294.843706</v>
       </c>
       <c r="F86" t="n">
-        <v>0.162588663790813</v>
+        <v>0.1447045144960128</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01847444630619346</v>
+        <v>0.01979956585708214</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1337142021.073419</v>
+        <v>1477834006.737872</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1865023794367051</v>
+        <v>0.1391997493100054</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02716982271902547</v>
+        <v>0.0336782994377983</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3033822215.668318</v>
+        <v>2876961751.468616</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1524104427178611</v>
+        <v>0.1531212554797512</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03362575926527792</v>
+        <v>0.03735820485727287</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" t="n">
+        <v>277</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3297916367.743679</v>
+        <v>2856472821.011435</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1104479190158059</v>
+        <v>0.1382769472820739</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03588633865614826</v>
+        <v>0.03863872737670036</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2031441345.259626</v>
+        <v>1810978872.834277</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1280293866482301</v>
+        <v>0.1065112397526549</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05053502444714889</v>
+        <v>0.03920217092800363</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2014713476.505367</v>
+        <v>2064038662.56363</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1533361438470061</v>
+        <v>0.1428559767374547</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0508617346401612</v>
+        <v>0.05226034805182421</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2644850734.601117</v>
+        <v>2455352652.171481</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1080017673450029</v>
+        <v>0.06770922661015151</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04725867996698646</v>
+        <v>0.03122404443807224</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4383208474.672077</v>
+        <v>3336763112.563226</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1411903211245035</v>
+        <v>0.1390728466342438</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03519543685910733</v>
+        <v>0.03636189228659262</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>121</v>
+      </c>
+      <c r="J93" t="n">
+        <v>279</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2145223839.713578</v>
+        <v>2013925657.789411</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1079885427512113</v>
+        <v>0.144755761865773</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03288851825240182</v>
+        <v>0.03874618152679503</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3190750448.569923</v>
+        <v>2349317442.169983</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1227424338263298</v>
+        <v>0.08433655452127349</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03576858066489486</v>
+        <v>0.03440164364606207</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2051603686.943418</v>
+        <v>1700186180.00076</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1410845276301581</v>
+        <v>0.1279060701800895</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04504572982668584</v>
+        <v>0.03546558901630072</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4136634080.15802</v>
+        <v>3781822665.101889</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1121935303354437</v>
+        <v>0.1442534584198032</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0263799589600084</v>
+        <v>0.02426022216583774</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>139</v>
+      </c>
+      <c r="J97" t="n">
+        <v>278</v>
+      </c>
+      <c r="K97" t="n">
+        <v>86.97194460482432</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3777361649.668852</v>
+        <v>3872235880.882509</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09850760721746414</v>
+        <v>0.1057775825226708</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02317211249319898</v>
+        <v>0.02787909266398133</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>67</v>
+      </c>
+      <c r="J98" t="n">
+        <v>278</v>
+      </c>
+      <c r="K98" t="n">
+        <v>88.09271026124625</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3244876568.606252</v>
+        <v>2158967422.536368</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1485211346824076</v>
+        <v>0.1302610269952502</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03413613996168793</v>
+        <v>0.03347103345432936</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4665580851.610762</v>
+        <v>3878637127.783676</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1701553196632065</v>
+        <v>0.1746709464575553</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02172578195822432</v>
+        <v>0.02338146461115094</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>118</v>
+      </c>
+      <c r="J100" t="n">
+        <v>279</v>
+      </c>
+      <c r="K100" t="n">
+        <v>92.52954329687331</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2476937162.754004</v>
+        <v>2597701837.742684</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2158689564937201</v>
+        <v>0.1979690653478441</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04794760061747821</v>
+        <v>0.03988191939023058</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>24</v>
+      </c>
+      <c r="J101" t="n">
+        <v>275</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
